--- a/va_facility_data_2025-02-20/Mount Vernon VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mount%20Vernon%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mount Vernon VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mount%20Vernon%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R16cc1afa562f4335a8048ed60dd99d86"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd068051daf0e41c8ac88fed2b4246c20"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R767e8ac1ce3745919d1e9480fc99aba9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0def9cfaebf5457ea03e87453a9b8d24"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7d959d8f8f1b4b3e90b15a8d8caa98d8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1768ebec745b496e9580b15e97960ddb"/>
   </x:sheets>
 </x:workbook>
 </file>
